--- a/Unlinked_Merged.xlsx
+++ b/Unlinked_Merged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG129"/>
+  <dimension ref="A1:AI129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iron Y/N? </t>
+          <t>Iron Y/N</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>2'FL</t>
+          <t>2FL</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>3'SL</t>
+          <t>3SL</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>6'SL</t>
+          <t>6SL</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -597,6 +597,16 @@
       <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>DSLNH</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Aliquots_num</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Secretor Status</t>
         </is>
       </c>
     </row>
@@ -633,7 +643,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -714,6 +724,14 @@
       <c r="AG2" t="n">
         <v>3015652.068</v>
       </c>
+      <c r="AH2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -748,7 +766,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -834,6 +852,14 @@
       </c>
       <c r="AG3" t="n">
         <v>221129.2263</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -869,7 +895,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -955,6 +981,14 @@
       </c>
       <c r="AG4" t="n">
         <v>509777.3427</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -990,7 +1024,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1076,6 +1110,14 @@
       </c>
       <c r="AG5" t="n">
         <v>421194.8932</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1111,7 +1153,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1193,6 +1235,14 @@
       </c>
       <c r="AG6" t="n">
         <v>2505246.209</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1228,7 +1278,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1314,6 +1364,14 @@
       </c>
       <c r="AG7" t="n">
         <v>2183460.45</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1349,7 +1407,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1437,6 +1495,14 @@
       </c>
       <c r="AG8" t="n">
         <v>1401438.868</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1472,7 +1538,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1558,6 +1624,14 @@
       </c>
       <c r="AG9" t="n">
         <v>333849.9207</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1593,7 +1667,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1679,6 +1753,14 @@
       </c>
       <c r="AG10" t="n">
         <v>944693.1848</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1714,7 +1796,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1800,6 +1882,14 @@
       </c>
       <c r="AG11" t="n">
         <v>2103144.435</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1835,7 +1925,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1921,6 +2011,14 @@
       </c>
       <c r="AG12" t="n">
         <v>581414.1216</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1956,7 +2054,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2035,6 +2133,14 @@
       <c r="AG13" t="n">
         <v>1061840.762</v>
       </c>
+      <c r="AH13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2069,7 +2175,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2155,6 +2261,14 @@
       </c>
       <c r="AG14" t="n">
         <v>1756233.881</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2190,7 +2304,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2276,6 +2390,14 @@
       </c>
       <c r="AG15" t="n">
         <v>621881.7461</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2394,6 +2516,14 @@
       <c r="AG16" t="n">
         <v>2032322.059</v>
       </c>
+      <c r="AH16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2428,7 +2558,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2507,6 +2637,14 @@
       <c r="AG17" t="n">
         <v>475876.5629</v>
       </c>
+      <c r="AH17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2541,7 +2679,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2620,6 +2758,14 @@
       <c r="AG18" t="n">
         <v>3896630.668</v>
       </c>
+      <c r="AH18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2741,6 +2887,14 @@
       <c r="AG19" t="n">
         <v>1700952.771</v>
       </c>
+      <c r="AH19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2775,7 +2929,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2861,6 +3015,14 @@
       </c>
       <c r="AG20" t="n">
         <v>684121.9244</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2979,6 +3141,14 @@
       <c r="AG21" t="n">
         <v>2203582.694</v>
       </c>
+      <c r="AH21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3013,7 +3183,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3099,6 +3269,14 @@
       </c>
       <c r="AG22" t="n">
         <v>600410.2789</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -3134,7 +3312,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3220,6 +3398,14 @@
       </c>
       <c r="AG23" t="n">
         <v>1068741.68</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -3255,7 +3441,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3343,6 +3529,14 @@
       </c>
       <c r="AG24" t="n">
         <v>833288.544</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3465,6 +3659,14 @@
       <c r="AG25" t="n">
         <v>1051324.298</v>
       </c>
+      <c r="AH25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3499,7 +3701,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3580,6 +3782,14 @@
       <c r="AG26" t="n">
         <v>2949271.58</v>
       </c>
+      <c r="AH26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3614,7 +3824,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3693,6 +3903,14 @@
       <c r="AG27" t="n">
         <v>338006.7843</v>
       </c>
+      <c r="AH27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3727,7 +3945,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3808,6 +4026,14 @@
       <c r="AG28" t="n">
         <v>696232.6800000001</v>
       </c>
+      <c r="AH28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3925,6 +4151,14 @@
       <c r="AG29" t="n">
         <v>3757845.679</v>
       </c>
+      <c r="AH29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3959,7 +4193,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4045,6 +4279,14 @@
       </c>
       <c r="AG30" t="n">
         <v>1770011.297</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -4080,7 +4322,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4168,6 +4410,14 @@
       </c>
       <c r="AG31" t="n">
         <v>951310.7559</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -4285,6 +4535,14 @@
       </c>
       <c r="AG32" t="n">
         <v>2087713.726</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -4391,6 +4649,14 @@
       <c r="AG33" t="n">
         <v>1031563.051</v>
       </c>
+      <c r="AH33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4425,7 +4691,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4504,6 +4770,14 @@
       <c r="AG34" t="n">
         <v>1179600.233</v>
       </c>
+      <c r="AH34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4538,7 +4812,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4624,6 +4898,14 @@
       </c>
       <c r="AG35" t="n">
         <v>1163908.192</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -4659,7 +4941,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4745,6 +5027,14 @@
       </c>
       <c r="AG36" t="n">
         <v>1738532.819</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -4780,7 +5070,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4866,6 +5156,14 @@
       </c>
       <c r="AG37" t="n">
         <v>780071.1012</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -4901,7 +5199,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4987,6 +5285,14 @@
       </c>
       <c r="AG38" t="n">
         <v>1189343.691</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -5022,12 +5328,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">MBM </t>
+          <t>MBM</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5101,6 +5407,14 @@
       <c r="AG39" t="n">
         <v>1687388.337</v>
       </c>
+      <c r="AH39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5135,7 +5449,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5221,6 +5535,14 @@
       </c>
       <c r="AG40" t="n">
         <v>923711.1683</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -5256,7 +5578,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5342,6 +5664,14 @@
       </c>
       <c r="AG41" t="n">
         <v>730975.2452</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -5377,7 +5707,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5463,6 +5793,14 @@
       </c>
       <c r="AG42" t="n">
         <v>1148089.239</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -5498,7 +5836,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5580,6 +5918,14 @@
       </c>
       <c r="AG43" t="n">
         <v>720318.7822</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -5700,6 +6046,14 @@
       <c r="AG44" t="n">
         <v>866224.4323</v>
       </c>
+      <c r="AH44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5817,6 +6171,14 @@
       <c r="AG45" t="n">
         <v>655129.2929</v>
       </c>
+      <c r="AH45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5851,7 +6213,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5937,6 +6299,14 @@
       </c>
       <c r="AG46" t="n">
         <v>723239.6948000001</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -5972,7 +6342,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6058,6 +6428,14 @@
       </c>
       <c r="AG47" t="n">
         <v>702181.5517</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -6093,7 +6471,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6179,6 +6557,14 @@
       </c>
       <c r="AG48" t="n">
         <v>968629.3506</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -6214,7 +6600,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6293,6 +6679,14 @@
       <c r="AG49" t="n">
         <v>580998.7796</v>
       </c>
+      <c r="AH49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6327,7 +6721,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6415,6 +6809,14 @@
       </c>
       <c r="AG50" t="n">
         <v>810085.1426</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -6450,7 +6852,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6536,6 +6938,14 @@
       </c>
       <c r="AG51" t="n">
         <v>314682.9708</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -6654,6 +7064,14 @@
       <c r="AG52" t="n">
         <v>597997.2463999999</v>
       </c>
+      <c r="AH52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6771,6 +7189,14 @@
       <c r="AG53" t="n">
         <v>430451.4173</v>
       </c>
+      <c r="AH53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6894,6 +7320,14 @@
       <c r="AG54" t="n">
         <v>1594683.704</v>
       </c>
+      <c r="AH54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6928,7 +7362,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -7016,6 +7450,14 @@
       </c>
       <c r="AG55" t="n">
         <v>815177.6528</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -7051,7 +7493,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -7137,6 +7579,14 @@
       </c>
       <c r="AG56" t="n">
         <v>478077.2548</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -7172,7 +7622,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7258,6 +7708,14 @@
       </c>
       <c r="AG57" t="n">
         <v>328352.923</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -7293,7 +7751,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -7379,6 +7837,14 @@
       </c>
       <c r="AG58" t="n">
         <v>370128.2823</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -7414,7 +7880,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>scavenged</t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -7485,6 +7951,14 @@
       <c r="AG59" t="n">
         <v>1598230.677</v>
       </c>
+      <c r="AH59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7519,7 +7993,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -7598,6 +8072,14 @@
       <c r="AG60" t="n">
         <v>765023.1414</v>
       </c>
+      <c r="AH60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7632,7 +8114,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -7718,6 +8200,14 @@
       </c>
       <c r="AG61" t="n">
         <v>262638.6426</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -7753,7 +8243,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7839,6 +8329,14 @@
       </c>
       <c r="AG62" t="n">
         <v>603873.716</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -7874,7 +8372,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -7953,6 +8451,14 @@
       <c r="AG63" t="n">
         <v>449978.9517</v>
       </c>
+      <c r="AH63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7987,7 +8493,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -8073,6 +8579,14 @@
       </c>
       <c r="AG64" t="n">
         <v>685299.0901</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -8108,7 +8622,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -8194,6 +8708,14 @@
       </c>
       <c r="AG65" t="n">
         <v>855262.0336</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -8229,7 +8751,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -8315,6 +8837,14 @@
       </c>
       <c r="AG66" t="n">
         <v>495915.9207</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -8350,7 +8880,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -8429,6 +8959,14 @@
       <c r="AG67" t="n">
         <v>1103404.841</v>
       </c>
+      <c r="AH67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8463,7 +9001,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -8549,6 +9087,14 @@
       </c>
       <c r="AG68" t="n">
         <v>1105741.723</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI68" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -8584,7 +9130,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -8670,6 +9216,14 @@
       </c>
       <c r="AG69" t="n">
         <v>641353.8728</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -8705,7 +9259,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -8791,6 +9345,14 @@
       </c>
       <c r="AG70" t="n">
         <v>551484.1234</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -8826,7 +9388,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -8912,6 +9474,14 @@
       </c>
       <c r="AG71" t="n">
         <v>681351.9131</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI71" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -8947,7 +9517,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -9033,6 +9603,14 @@
       </c>
       <c r="AG72" t="n">
         <v>998791.0098999999</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -9068,7 +9646,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -9154,6 +9732,14 @@
       </c>
       <c r="AG73" t="n">
         <v>847114.0359</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -9189,7 +9775,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -9275,6 +9861,14 @@
       </c>
       <c r="AG74" t="n">
         <v>891583.6002</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -9310,12 +9904,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t xml:space="preserve">MBM </t>
+          <t>MBM</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9391,6 +9985,14 @@
       <c r="AG75" t="n">
         <v>2220915.956</v>
       </c>
+      <c r="AH75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI75" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9425,7 +10027,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -9511,6 +10113,14 @@
       </c>
       <c r="AG76" t="n">
         <v>1210137.416</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI76" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -9546,7 +10156,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -9632,6 +10242,14 @@
       </c>
       <c r="AG77" t="n">
         <v>1350841.35</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI77" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -9667,7 +10285,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -9753,6 +10371,14 @@
       </c>
       <c r="AG78" t="n">
         <v>531289.5167</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -9788,7 +10414,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -9874,6 +10500,14 @@
       </c>
       <c r="AG79" t="n">
         <v>880527.6936</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI79" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -9909,7 +10543,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -9991,6 +10625,14 @@
       </c>
       <c r="AG80" t="n">
         <v>969169.8156</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -10026,7 +10668,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -10112,6 +10754,14 @@
       </c>
       <c r="AG81" t="n">
         <v>835399.9087</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI81" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -10147,7 +10797,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -10233,6 +10883,14 @@
       </c>
       <c r="AG82" t="n">
         <v>765539.4974</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI82" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -10268,7 +10926,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -10354,6 +11012,14 @@
       </c>
       <c r="AG83" t="n">
         <v>888613.3153</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI83" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -10460,6 +11126,14 @@
       <c r="AG84" t="n">
         <v>687247.2043</v>
       </c>
+      <c r="AH84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI84" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10494,7 +11168,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -10580,6 +11254,14 @@
       </c>
       <c r="AG85" t="n">
         <v>758800.9858</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI85" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -10615,7 +11297,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -10701,6 +11383,14 @@
       </c>
       <c r="AG86" t="n">
         <v>642935.1274999999</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI86" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -10736,7 +11426,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -10822,6 +11512,14 @@
       </c>
       <c r="AG87" t="n">
         <v>667348.1043</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -10857,7 +11555,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -10943,6 +11641,14 @@
       </c>
       <c r="AG88" t="n">
         <v>1024436.816</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI88" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -10978,7 +11684,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -11057,6 +11763,14 @@
       <c r="AG89" t="n">
         <v>1759529.754</v>
       </c>
+      <c r="AH89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI89" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11091,7 +11805,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -11177,6 +11891,14 @@
       </c>
       <c r="AG90" t="n">
         <v>676105.3687</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI90" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -11295,6 +12017,14 @@
       <c r="AG91" t="n">
         <v>551076.7106</v>
       </c>
+      <c r="AH91" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI91" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11329,7 +12059,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -11411,6 +12141,14 @@
       </c>
       <c r="AG92" t="n">
         <v>761696.6125</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI92" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -11446,7 +12184,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -11534,6 +12272,14 @@
       </c>
       <c r="AG93" t="n">
         <v>638868.2585999999</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI93" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -11569,7 +12315,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -11655,6 +12401,14 @@
       </c>
       <c r="AG94" t="n">
         <v>581647.2126</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI94" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -11690,7 +12444,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -11776,6 +12530,14 @@
       </c>
       <c r="AG95" t="n">
         <v>232814.3603</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -11811,7 +12573,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -11890,6 +12652,14 @@
       <c r="AG96" t="n">
         <v>1670522.191</v>
       </c>
+      <c r="AH96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI96" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11924,7 +12694,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -12010,6 +12780,14 @@
       </c>
       <c r="AG97" t="n">
         <v>270965.7064</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI97" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -12045,7 +12823,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -12124,6 +12902,14 @@
       <c r="AG98" t="n">
         <v>1591842.305</v>
       </c>
+      <c r="AH98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI98" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12158,7 +12944,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -12242,6 +13028,14 @@
       </c>
       <c r="AG99" t="n">
         <v>1661712.358</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI99" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -12277,7 +13071,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -12356,6 +13150,14 @@
       <c r="AG100" t="n">
         <v>463649.5414</v>
       </c>
+      <c r="AH100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI100" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12473,6 +13275,14 @@
       <c r="AG101" t="n">
         <v>555862.8611</v>
       </c>
+      <c r="AH101" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI101" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12507,7 +13317,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -12586,6 +13396,14 @@
       <c r="AG102" t="n">
         <v>732138.1076</v>
       </c>
+      <c r="AH102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI102" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12703,6 +13521,14 @@
       <c r="AG103" t="n">
         <v>248992.2402</v>
       </c>
+      <c r="AH103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI103" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12737,7 +13563,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -12823,6 +13649,14 @@
       </c>
       <c r="AG104" t="n">
         <v>220339.5695</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI104" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -12858,7 +13692,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -12940,6 +13774,14 @@
       </c>
       <c r="AG105" t="n">
         <v>2845910.206</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI105" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -12975,7 +13817,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -13032,6 +13874,14 @@
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI106" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13066,7 +13916,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -13148,6 +13998,14 @@
       </c>
       <c r="AG107" t="n">
         <v>571997.0223</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI107" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -13183,7 +14041,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -13269,6 +14127,14 @@
       </c>
       <c r="AG108" t="n">
         <v>553327.7057</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI108" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -13304,7 +14170,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -13390,6 +14256,14 @@
       </c>
       <c r="AG109" t="n">
         <v>159971.5787</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI109" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -13425,12 +14299,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t xml:space="preserve">MBM </t>
+          <t>MBM</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13511,6 +14385,14 @@
       </c>
       <c r="AG110" t="n">
         <v>925684.9878999999</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI110" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -13546,7 +14428,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -13625,6 +14507,14 @@
       <c r="AG111" t="n">
         <v>937538.8721</v>
       </c>
+      <c r="AH111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI111" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13659,7 +14549,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -13741,6 +14631,14 @@
       </c>
       <c r="AG112" t="n">
         <v>1627194.624</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI112" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -13776,7 +14674,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -13858,6 +14756,14 @@
       </c>
       <c r="AG113" t="n">
         <v>481418.2998</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI113" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -13893,7 +14799,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -13979,6 +14885,14 @@
       </c>
       <c r="AG114" t="n">
         <v>687329.9763</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI114" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -14097,6 +15011,14 @@
       <c r="AG115" t="n">
         <v>448267.7108</v>
       </c>
+      <c r="AH115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI115" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14131,7 +15053,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -14213,6 +15135,14 @@
       </c>
       <c r="AG116" t="n">
         <v>538330.4877000001</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI116" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -14248,7 +15178,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -14334,6 +15264,14 @@
       </c>
       <c r="AG117" t="n">
         <v>1585125.644</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI117" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -14369,7 +15307,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -14448,6 +15386,14 @@
       <c r="AG118" t="n">
         <v>3199231.287</v>
       </c>
+      <c r="AH118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI118" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14565,6 +15511,14 @@
       <c r="AG119" t="n">
         <v>386262.0833</v>
       </c>
+      <c r="AH119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI119" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14599,7 +15553,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -14680,6 +15634,14 @@
       <c r="AG120" t="n">
         <v>1415475.57</v>
       </c>
+      <c r="AH120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI120" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14714,7 +15676,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -14800,6 +15762,14 @@
       </c>
       <c r="AG121" t="n">
         <v>100692.3282</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI121" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -14835,7 +15805,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -14890,6 +15860,14 @@
       <c r="AE122" t="inlineStr"/>
       <c r="AF122" t="inlineStr"/>
       <c r="AG122" t="inlineStr"/>
+      <c r="AH122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI122" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14924,7 +15902,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -15003,6 +15981,14 @@
       <c r="AG123" t="n">
         <v>1524967.873</v>
       </c>
+      <c r="AH123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI123" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15037,7 +16023,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -15116,6 +16102,14 @@
       <c r="AG124" t="n">
         <v>1995252.144</v>
       </c>
+      <c r="AH124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI124" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15150,7 +16144,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -15229,6 +16223,14 @@
       <c r="AG125" t="n">
         <v>1400117.953</v>
       </c>
+      <c r="AH125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI125" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15263,7 +16265,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -15344,6 +16346,14 @@
       <c r="AG126" t="n">
         <v>858758.6355</v>
       </c>
+      <c r="AH126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI126" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15378,7 +16388,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -15457,6 +16467,14 @@
       <c r="AG127" t="n">
         <v>1916661.908</v>
       </c>
+      <c r="AH127" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI127" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15491,7 +16509,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -15573,6 +16591,14 @@
       </c>
       <c r="AG128" t="n">
         <v>1291120.087</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI128" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -15608,12 +16634,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged </t>
+          <t>Scavenged</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t xml:space="preserve">MBM </t>
+          <t>MBM</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -15686,6 +16712,14 @@
       </c>
       <c r="AG129" t="n">
         <v>1264870.987</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI129" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Unlinked_Merged.xlsx
+++ b/Unlinked_Merged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI129"/>
+  <dimension ref="A1:AJ129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,11 @@
           <t>Secretor Status</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>scavenged notes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +867,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -990,6 +997,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1119,6 +1127,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1244,6 +1253,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1373,6 +1383,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1442,7 +1453,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Scavenged Feeding Tube - Nurse needed to feed extra 1 mL</t>
+          <t>Scavenged Feeding Tube</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1502,6 +1513,11 @@
       <c r="AI8" t="inlineStr">
         <is>
           <t>Non-Secretor</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>- Nurse needed to feed extra 1 mL</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1587,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged Feeding Tube - also started on sodium chloride oral solution 6/15/24 </t>
+          <t>Scavenged Feeding Tube</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1631,6 +1647,11 @@
       <c r="AI9" t="inlineStr">
         <is>
           <t>Secretor</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>- also started on sodium chloride oral solution 6/15/24</t>
         </is>
       </c>
     </row>
@@ -1762,6 +1783,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1891,6 +1913,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1958,7 +1981,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Scavenged Feeding Tube + NaCl Oral Solution</t>
+          <t>Scavenged Feeding Tube</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -2018,6 +2041,11 @@
       <c r="AI12" t="inlineStr">
         <is>
           <t>Secretor</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>+ NaCl Oral Solution</t>
         </is>
       </c>
     </row>
@@ -2141,6 +2169,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2270,6 +2299,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2337,7 +2367,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Scavenged Feeding Tube + NaCl Oral Solution</t>
+          <t>Scavenged Feeding Tube</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -2397,6 +2427,11 @@
       <c r="AI15" t="inlineStr">
         <is>
           <t>Secretor</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>+ NaCl Oral Solution</t>
         </is>
       </c>
     </row>
@@ -2524,6 +2559,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2645,6 +2681,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2766,6 +2803,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2895,6 +2933,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2962,7 +3001,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scavenged Feeding Tube + NaCl Oral Solution - Pt intubated 6/25 &amp; is NPO </t>
+          <t>Scavenged Feeding Tube</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -3022,6 +3061,11 @@
       <c r="AI20" t="inlineStr">
         <is>
           <t>Secretor</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>+ NaCl Oral Solution - Pt intubated 6/25 &amp; is NPO</t>
         </is>
       </c>
     </row>
@@ -3149,6 +3193,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3278,6 +3323,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3407,6 +3453,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3538,6 +3585,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3667,6 +3715,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3790,6 +3839,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3911,6 +3961,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4034,6 +4085,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4159,6 +4211,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4288,6 +4341,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4419,6 +4473,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4544,6 +4599,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4657,6 +4713,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4778,6 +4835,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4907,6 +4965,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5036,6 +5095,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5165,6 +5225,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5232,7 +5293,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Scavenged Feeding Tube - Outside 4-hr .indo. by 2 hours</t>
+          <t>Scavenged Feeding Tube</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -5292,6 +5353,11 @@
       <c r="AI38" t="inlineStr">
         <is>
           <t>Non-Secretor</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>- Outside 4-hr .indo. by 2 hours</t>
         </is>
       </c>
     </row>
@@ -5415,6 +5481,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5544,6 +5611,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5673,6 +5741,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5802,6 +5871,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5927,6 +5997,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6054,6 +6125,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6179,6 +6251,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6308,6 +6381,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6375,7 +6449,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Scavenged Feeding Tube - Intubated 6/25 - NPO, restarted NG feeds 7/2</t>
+          <t>Scavenged Feeding Tube</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -6435,6 +6509,11 @@
       <c r="AI47" t="inlineStr">
         <is>
           <t>Secretor</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>- Intubated 6/25 - NPO, restarted NG feeds 7/2</t>
         </is>
       </c>
     </row>
@@ -6566,6 +6645,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6687,6 +6767,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6818,6 +6899,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6885,7 +6967,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Scavenged Feeding Tube - Parenteral Nutrition Stopped</t>
+          <t>Scavenged Feeding Tube</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -6945,6 +7027,11 @@
       <c r="AI51" t="inlineStr">
         <is>
           <t>Secretor</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>- Parenteral Nutrition Stopped</t>
         </is>
       </c>
     </row>
@@ -7072,6 +7159,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7197,6 +7285,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7328,6 +7417,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7459,6 +7549,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7588,6 +7679,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7717,6 +7809,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7846,6 +7939,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7959,6 +8053,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8080,6 +8175,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8209,6 +8305,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8338,6 +8435,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8459,6 +8557,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8588,6 +8687,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8717,6 +8817,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8846,6 +8947,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8967,6 +9069,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9096,6 +9199,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9225,6 +9329,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9354,6 +9459,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9483,6 +9589,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9612,6 +9719,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9741,6 +9849,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9870,6 +9979,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9993,6 +10103,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10122,6 +10233,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10251,6 +10363,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10380,6 +10493,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10509,6 +10623,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10634,6 +10749,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10763,6 +10879,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10892,6 +11009,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11021,6 +11139,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11134,6 +11253,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11263,6 +11383,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11392,6 +11513,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11521,6 +11643,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11650,6 +11773,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11771,6 +11895,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11900,6 +12025,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12025,6 +12151,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12150,6 +12277,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12281,6 +12409,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12348,7 +12477,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Scavenged Feeding Tube - Last NG Feed 7/2</t>
+          <t>Scavenged Feeding Tube</t>
         </is>
       </c>
       <c r="Q94" t="n">
@@ -12408,6 +12537,11 @@
       <c r="AI94" t="inlineStr">
         <is>
           <t>Non-Secretor</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>- Last NG Feed 7/2</t>
         </is>
       </c>
     </row>
@@ -12539,6 +12673,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12660,6 +12795,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12789,6 +12925,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12910,6 +13047,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13037,6 +13175,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13158,6 +13297,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13283,6 +13423,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13404,6 +13545,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13529,6 +13671,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13658,6 +13801,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13783,6 +13927,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13882,6 +14027,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14007,6 +14153,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14136,6 +14283,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14265,6 +14413,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14394,6 +14543,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14515,6 +14665,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14640,6 +14791,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14765,6 +14917,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14894,6 +15047,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15019,6 +15173,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15144,6 +15299,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15273,6 +15429,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15394,6 +15551,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15519,6 +15677,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15642,6 +15801,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15771,6 +15931,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15868,6 +16029,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15989,6 +16151,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16110,6 +16273,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16231,6 +16395,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16354,6 +16519,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16475,6 +16641,7 @@
           <t>Non-Secretor</t>
         </is>
       </c>
+      <c r="AJ127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16600,6 +16767,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16721,6 +16889,7 @@
           <t>Secretor</t>
         </is>
       </c>
+      <c r="AJ129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unlinked_Merged.xlsx
+++ b/Unlinked_Merged.xlsx
@@ -1517,7 +1517,7 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>- Nurse needed to feed extra 1 mL</t>
+          <t>Nurse needed to feed extra 1 mL</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>- also started on sodium chloride oral solution 6/15/24</t>
+          <t>also started on sodium chloride oral solution 6/15/24</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>+ NaCl Oral Solution</t>
+          <t>NaCl Oral Solution</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>+ NaCl Oral Solution</t>
+          <t>NaCl Oral Solution</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>+ NaCl Oral Solution - Pt intubated 6/25 &amp; is NPO</t>
+          <t>NaCl Oral Solution - Pt intubated 6/25 &amp; is NPO</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>- Outside 4-hr .indo. by 2 hours</t>
+          <t>Outside 4-hr .indo. by 2 hours</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>- Intubated 6/25 - NPO, restarted NG feeds 7/2</t>
+          <t>Intubated 6/25 - NPO, restarted NG feeds 7/2</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>- Parenteral Nutrition Stopped</t>
+          <t>Parenteral Nutrition Stopped</t>
         </is>
       </c>
     </row>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="AJ94" t="inlineStr">
         <is>
-          <t>- Last NG Feed 7/2</t>
+          <t>Last NG Feed 7/2</t>
         </is>
       </c>
     </row>

--- a/Unlinked_Merged.xlsx
+++ b/Unlinked_Merged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI129"/>
+  <dimension ref="A1:AK129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,16 @@
           <t>scavenged notes</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Sample Source</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>CGA_cat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -730,6 +740,16 @@
         </is>
       </c>
       <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -857,6 +877,16 @@
         </is>
       </c>
       <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -984,6 +1014,16 @@
         </is>
       </c>
       <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1111,6 +1151,16 @@
         </is>
       </c>
       <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1234,6 +1284,16 @@
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1361,6 +1421,16 @@
         </is>
       </c>
       <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1494,6 +1564,16 @@
           <t>Nurse needed to feed extra 1 mL</t>
         </is>
       </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1625,6 +1705,16 @@
           <t>also started on sodium chloride oral solution 6/15/24</t>
         </is>
       </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1752,6 +1842,16 @@
         </is>
       </c>
       <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1879,6 +1979,16 @@
         </is>
       </c>
       <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2010,6 +2120,16 @@
           <t>NaCl Oral Solution</t>
         </is>
       </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2129,6 +2249,16 @@
         </is>
       </c>
       <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2256,6 +2386,16 @@
         </is>
       </c>
       <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2387,6 +2527,16 @@
           <t>NaCl Oral Solution</t>
         </is>
       </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2510,6 +2660,16 @@
         </is>
       </c>
       <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2629,6 +2789,16 @@
         </is>
       </c>
       <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2748,6 +2918,16 @@
         </is>
       </c>
       <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2875,6 +3055,16 @@
         </is>
       </c>
       <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3006,6 +3196,16 @@
           <t>NaCl Oral Solution - Pt intubated 6/25 &amp; is NPO</t>
         </is>
       </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3129,6 +3329,16 @@
         </is>
       </c>
       <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3256,6 +3466,16 @@
         </is>
       </c>
       <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3383,6 +3603,16 @@
         </is>
       </c>
       <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3512,6 +3742,16 @@
         </is>
       </c>
       <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3639,6 +3879,16 @@
         </is>
       </c>
       <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3760,6 +4010,16 @@
         </is>
       </c>
       <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3879,6 +4139,16 @@
         </is>
       </c>
       <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4000,6 +4270,16 @@
         </is>
       </c>
       <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4123,6 +4403,16 @@
         </is>
       </c>
       <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4250,6 +4540,16 @@
         </is>
       </c>
       <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4379,6 +4679,16 @@
         </is>
       </c>
       <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4502,6 +4812,16 @@
         </is>
       </c>
       <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4613,6 +4933,16 @@
         </is>
       </c>
       <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4732,6 +5062,16 @@
         </is>
       </c>
       <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4859,6 +5199,16 @@
         </is>
       </c>
       <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4986,6 +5336,16 @@
         </is>
       </c>
       <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5113,6 +5473,16 @@
         </is>
       </c>
       <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Very Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5244,6 +5614,16 @@
           <t>Outside 4-hr .indo. by 2 hours</t>
         </is>
       </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5363,6 +5743,16 @@
         </is>
       </c>
       <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5490,6 +5880,16 @@
         </is>
       </c>
       <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5617,6 +6017,16 @@
         </is>
       </c>
       <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5744,6 +6154,16 @@
         </is>
       </c>
       <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5867,6 +6287,16 @@
         </is>
       </c>
       <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5992,6 +6422,16 @@
         </is>
       </c>
       <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6115,6 +6555,16 @@
         </is>
       </c>
       <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6242,6 +6692,16 @@
         </is>
       </c>
       <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6373,6 +6833,16 @@
           <t>Intubated 6/25 - NPO, restarted NG feeds 7/2</t>
         </is>
       </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6500,6 +6970,16 @@
         </is>
       </c>
       <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6619,6 +7099,16 @@
         </is>
       </c>
       <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6748,6 +7238,16 @@
         </is>
       </c>
       <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6879,6 +7379,16 @@
           <t>Parenteral Nutrition Stopped</t>
         </is>
       </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7002,6 +7512,16 @@
         </is>
       </c>
       <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7125,6 +7645,16 @@
         </is>
       </c>
       <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7254,6 +7784,16 @@
         </is>
       </c>
       <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7383,6 +7923,16 @@
         </is>
       </c>
       <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7510,6 +8060,16 @@
         </is>
       </c>
       <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7637,6 +8197,16 @@
         </is>
       </c>
       <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7764,6 +8334,16 @@
         </is>
       </c>
       <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7875,6 +8455,16 @@
         </is>
       </c>
       <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7994,6 +8584,16 @@
         </is>
       </c>
       <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8121,6 +8721,16 @@
         </is>
       </c>
       <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8248,6 +8858,16 @@
         </is>
       </c>
       <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8367,6 +8987,16 @@
         </is>
       </c>
       <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8494,6 +9124,16 @@
         </is>
       </c>
       <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8621,6 +9261,16 @@
         </is>
       </c>
       <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8748,6 +9398,16 @@
         </is>
       </c>
       <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8867,6 +9527,16 @@
         </is>
       </c>
       <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8994,6 +9664,16 @@
         </is>
       </c>
       <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9121,6 +9801,16 @@
         </is>
       </c>
       <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>Moderate Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9248,6 +9938,16 @@
         </is>
       </c>
       <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK70" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9375,6 +10075,16 @@
         </is>
       </c>
       <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9502,6 +10212,16 @@
         </is>
       </c>
       <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9629,6 +10349,16 @@
         </is>
       </c>
       <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK73" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9756,6 +10486,16 @@
         </is>
       </c>
       <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9877,6 +10617,16 @@
         </is>
       </c>
       <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10004,6 +10754,16 @@
         </is>
       </c>
       <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10131,6 +10891,16 @@
         </is>
       </c>
       <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10258,6 +11028,16 @@
         </is>
       </c>
       <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10385,6 +11165,16 @@
         </is>
       </c>
       <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10508,6 +11298,16 @@
         </is>
       </c>
       <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10635,6 +11435,16 @@
         </is>
       </c>
       <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10762,6 +11572,16 @@
         </is>
       </c>
       <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10889,6 +11709,16 @@
         </is>
       </c>
       <c r="AI83" t="inlineStr"/>
+      <c r="AJ83" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11000,6 +11830,16 @@
         </is>
       </c>
       <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11127,6 +11967,16 @@
         </is>
       </c>
       <c r="AI85" t="inlineStr"/>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11254,6 +12104,16 @@
         </is>
       </c>
       <c r="AI86" t="inlineStr"/>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11381,6 +12241,16 @@
         </is>
       </c>
       <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11508,6 +12378,16 @@
         </is>
       </c>
       <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11627,6 +12507,16 @@
         </is>
       </c>
       <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11754,6 +12644,16 @@
         </is>
       </c>
       <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11877,6 +12777,16 @@
         </is>
       </c>
       <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12000,6 +12910,16 @@
         </is>
       </c>
       <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12129,6 +13049,16 @@
         </is>
       </c>
       <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12260,6 +13190,16 @@
           <t>Last NG Feed 7/2</t>
         </is>
       </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12387,6 +13327,16 @@
         </is>
       </c>
       <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12506,6 +13456,16 @@
         </is>
       </c>
       <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12633,6 +13593,16 @@
         </is>
       </c>
       <c r="AI97" t="inlineStr"/>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12752,6 +13722,16 @@
         </is>
       </c>
       <c r="AI98" t="inlineStr"/>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12877,6 +13857,16 @@
         </is>
       </c>
       <c r="AI99" t="inlineStr"/>
+      <c r="AJ99" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK99" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12996,6 +13986,16 @@
         </is>
       </c>
       <c r="AI100" t="inlineStr"/>
+      <c r="AJ100" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK100" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13119,6 +14119,16 @@
         </is>
       </c>
       <c r="AI101" t="inlineStr"/>
+      <c r="AJ101" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK101" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13238,6 +14248,16 @@
         </is>
       </c>
       <c r="AI102" t="inlineStr"/>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13361,6 +14381,16 @@
         </is>
       </c>
       <c r="AI103" t="inlineStr"/>
+      <c r="AJ103" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK103" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13488,6 +14518,16 @@
         </is>
       </c>
       <c r="AI104" t="inlineStr"/>
+      <c r="AJ104" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK104" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13611,6 +14651,16 @@
         </is>
       </c>
       <c r="AI105" t="inlineStr"/>
+      <c r="AJ105" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK105" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13710,6 +14760,16 @@
         </is>
       </c>
       <c r="AI106" t="inlineStr"/>
+      <c r="AJ106" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK106" t="inlineStr">
+        <is>
+          <t>Late Preterm</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13833,6 +14893,16 @@
         </is>
       </c>
       <c r="AI107" t="inlineStr"/>
+      <c r="AJ107" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK107" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13960,6 +15030,16 @@
         </is>
       </c>
       <c r="AI108" t="inlineStr"/>
+      <c r="AJ108" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK108" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14087,6 +15167,16 @@
         </is>
       </c>
       <c r="AI109" t="inlineStr"/>
+      <c r="AJ109" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK109" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14214,6 +15304,16 @@
         </is>
       </c>
       <c r="AI110" t="inlineStr"/>
+      <c r="AJ110" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK110" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14333,6 +15433,16 @@
         </is>
       </c>
       <c r="AI111" t="inlineStr"/>
+      <c r="AJ111" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK111" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14456,6 +15566,16 @@
         </is>
       </c>
       <c r="AI112" t="inlineStr"/>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK112" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14579,6 +15699,16 @@
         </is>
       </c>
       <c r="AI113" t="inlineStr"/>
+      <c r="AJ113" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK113" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14706,6 +15836,16 @@
         </is>
       </c>
       <c r="AI114" t="inlineStr"/>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK114" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14829,6 +15969,16 @@
         </is>
       </c>
       <c r="AI115" t="inlineStr"/>
+      <c r="AJ115" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK115" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14952,6 +16102,16 @@
         </is>
       </c>
       <c r="AI116" t="inlineStr"/>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK116" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15079,6 +16239,16 @@
         </is>
       </c>
       <c r="AI117" t="inlineStr"/>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK117" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15198,6 +16368,16 @@
         </is>
       </c>
       <c r="AI118" t="inlineStr"/>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK118" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15321,6 +16501,16 @@
         </is>
       </c>
       <c r="AI119" t="inlineStr"/>
+      <c r="AJ119" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK119" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15442,6 +16632,16 @@
         </is>
       </c>
       <c r="AI120" t="inlineStr"/>
+      <c r="AJ120" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK120" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15569,6 +16769,16 @@
         </is>
       </c>
       <c r="AI121" t="inlineStr"/>
+      <c r="AJ121" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK121" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15666,6 +16876,16 @@
         </is>
       </c>
       <c r="AI122" t="inlineStr"/>
+      <c r="AJ122" t="inlineStr">
+        <is>
+          <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK122" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15785,6 +17005,16 @@
         </is>
       </c>
       <c r="AI123" t="inlineStr"/>
+      <c r="AJ123" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK123" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15904,6 +17134,16 @@
         </is>
       </c>
       <c r="AI124" t="inlineStr"/>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK124" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16023,6 +17263,16 @@
         </is>
       </c>
       <c r="AI125" t="inlineStr"/>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK125" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16144,6 +17394,16 @@
         </is>
       </c>
       <c r="AI126" t="inlineStr"/>
+      <c r="AJ126" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK126" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16263,6 +17523,16 @@
         </is>
       </c>
       <c r="AI127" t="inlineStr"/>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK127" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16386,6 +17656,16 @@
         </is>
       </c>
       <c r="AI128" t="inlineStr"/>
+      <c r="AJ128" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK128" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16505,6 +17785,16 @@
         </is>
       </c>
       <c r="AI129" t="inlineStr"/>
+      <c r="AJ129" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="AK129" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unlinked_Merged.xlsx
+++ b/Unlinked_Merged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK129"/>
+  <dimension ref="A1:AJ129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,11 +614,6 @@
           <t>Sample Source</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>CGA_cat</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -745,11 +740,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -882,11 +872,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1019,11 +1004,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1156,11 +1136,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1289,11 +1264,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1426,11 +1396,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1569,11 +1534,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1710,11 +1670,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1844,12 +1799,7 @@
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>Scavenged</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -1984,11 +1934,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2125,11 +2070,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2254,11 +2194,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2391,11 +2326,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2532,11 +2462,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2665,11 +2590,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2794,11 +2714,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2923,11 +2838,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3060,11 +2970,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3201,11 +3106,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3334,11 +3234,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3471,11 +3366,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3608,11 +3498,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3747,11 +3632,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3884,11 +3764,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4015,11 +3890,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4144,11 +4014,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4275,11 +4140,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4408,11 +4268,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4545,11 +4400,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4684,11 +4534,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4815,11 +4660,6 @@
       <c r="AJ32" t="inlineStr">
         <is>
           <t>Residual</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
         </is>
       </c>
     </row>
@@ -4938,11 +4778,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5067,11 +4902,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5204,11 +5034,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5341,11 +5166,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5478,11 +5298,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Very Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5619,11 +5434,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5748,11 +5558,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5885,11 +5690,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6022,11 +5822,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6159,11 +5954,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6292,11 +6082,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6427,11 +6212,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6560,11 +6340,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK45" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6697,11 +6472,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6838,11 +6608,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6975,11 +6740,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7104,11 +6864,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7243,11 +6998,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK50" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7384,11 +7134,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK51" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7517,11 +7262,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7650,11 +7390,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK53" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7789,11 +7524,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7928,11 +7658,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8065,11 +7790,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8202,11 +7922,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8337,11 +8052,6 @@
       <c r="AJ58" t="inlineStr">
         <is>
           <t>Scavenged</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
         </is>
       </c>
     </row>
@@ -8460,11 +8170,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8589,11 +8294,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK60" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8726,11 +8426,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK61" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8863,11 +8558,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK62" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8992,11 +8682,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK63" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9129,11 +8814,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK64" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9266,11 +8946,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK65" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9403,11 +9078,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK66" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9532,11 +9202,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK67" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9669,11 +9334,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK68" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9806,11 +9466,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK69" t="inlineStr">
-        <is>
-          <t>Moderate Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9943,11 +9598,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK70" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10080,11 +9730,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK71" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10217,11 +9862,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10354,11 +9994,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK73" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10491,11 +10126,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK74" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10622,11 +10252,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK75" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10759,11 +10384,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK76" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10896,11 +10516,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK77" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11033,11 +10648,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK78" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11170,11 +10780,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK79" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11303,11 +10908,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK80" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11440,11 +11040,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK81" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11577,11 +11172,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK82" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11712,11 +11302,6 @@
       <c r="AJ83" t="inlineStr">
         <is>
           <t>Residual</t>
-        </is>
-      </c>
-      <c r="AK83" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
         </is>
       </c>
     </row>
@@ -11835,11 +11420,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK84" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11972,11 +11552,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK85" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12109,11 +11684,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK86" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12246,11 +11816,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK87" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12383,11 +11948,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK88" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12512,11 +12072,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK89" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12649,11 +12204,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK90" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12782,11 +12332,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK91" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12915,11 +12460,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK92" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13054,11 +12594,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK93" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13195,11 +12730,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK94" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13332,11 +12862,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK95" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13461,11 +12986,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK96" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13598,11 +13118,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK97" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13727,11 +13242,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK98" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13862,11 +13372,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK99" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13991,11 +13496,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK100" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14124,11 +13624,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK101" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14253,11 +13748,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK102" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14386,11 +13876,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK103" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14523,11 +14008,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK104" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14654,11 +14134,6 @@
       <c r="AJ105" t="inlineStr">
         <is>
           <t>Residual</t>
-        </is>
-      </c>
-      <c r="AK105" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
         </is>
       </c>
     </row>
@@ -14765,11 +14240,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK106" t="inlineStr">
-        <is>
-          <t>Late Preterm</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14898,11 +14368,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK107" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15035,11 +14500,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK108" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15172,11 +14632,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK109" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15309,11 +14764,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK110" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15438,11 +14888,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK111" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15571,11 +15016,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK112" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -15704,11 +15144,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK113" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15841,11 +15276,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK114" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15974,11 +15404,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK115" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16107,11 +15532,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK116" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16244,11 +15664,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK117" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -16373,11 +15788,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK118" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16506,11 +15916,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK119" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16637,11 +16042,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK120" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -16772,11 +16172,6 @@
       <c r="AJ121" t="inlineStr">
         <is>
           <t>Scavenged</t>
-        </is>
-      </c>
-      <c r="AK121" t="inlineStr">
-        <is>
-          <t>Term</t>
         </is>
       </c>
     </row>
@@ -16881,11 +16276,6 @@
           <t>Scavenged</t>
         </is>
       </c>
-      <c r="AK122" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17010,11 +16400,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK123" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17139,11 +16524,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK124" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -17268,11 +16648,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK125" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -17399,11 +16774,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK126" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -17528,11 +16898,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK127" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -17661,11 +17026,6 @@
           <t>Residual</t>
         </is>
       </c>
-      <c r="AK128" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -17788,11 +17148,6 @@
       <c r="AJ129" t="inlineStr">
         <is>
           <t>Residual</t>
-        </is>
-      </c>
-      <c r="AK129" t="inlineStr">
-        <is>
-          <t>Term</t>
         </is>
       </c>
     </row>

--- a/Unlinked_Merged.xlsx
+++ b/Unlinked_Merged.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">DOL </t>
+          <t>DOL</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Iron Y/N</t>
+          <t>Iron Y/N?</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linked? </t>
+          <t>Linked?</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Aliquots </t>
+          <t># Aliquots</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room &amp; B2 Full</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -737,7 +737,7 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1261,7 +1261,7 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scanvenged Feeding Tube - Collected Outside of 4 hr Window </t>
+          <t>Scavenged Feeding Tube</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1799,7 +1799,7 @@
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Scavenged</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -2191,7 +2191,7 @@
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2587,7 +2587,7 @@
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2711,7 +2711,7 @@
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2835,7 +2835,7 @@
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2967,7 +2967,7 @@
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -3231,7 +3231,7 @@
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -3761,7 +3761,7 @@
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -3887,7 +3887,7 @@
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -4011,7 +4011,7 @@
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -4137,7 +4137,7 @@
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -4265,7 +4265,7 @@
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -4397,7 +4397,7 @@
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -4659,7 +4659,7 @@
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -4775,7 +4775,7 @@
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -4899,7 +4899,7 @@
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -5031,7 +5031,7 @@
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -5555,7 +5555,7 @@
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -5951,7 +5951,7 @@
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -6079,7 +6079,7 @@
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -6209,7 +6209,7 @@
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -6337,7 +6337,7 @@
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -6737,7 +6737,7 @@
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -6861,7 +6861,7 @@
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q52" t="n">
@@ -7259,7 +7259,7 @@
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -7387,7 +7387,7 @@
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q54" t="n">
@@ -7521,7 +7521,7 @@
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q59" t="n">
@@ -8167,7 +8167,7 @@
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q60" t="n">
@@ -8291,7 +8291,7 @@
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q62" t="n">
@@ -8555,7 +8555,7 @@
       <c r="AI62" t="inlineStr"/>
       <c r="AJ62" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q63" t="n">
@@ -8679,7 +8679,7 @@
       <c r="AI63" t="inlineStr"/>
       <c r="AJ63" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q66" t="n">
@@ -9075,7 +9075,7 @@
       <c r="AI66" t="inlineStr"/>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q67" t="n">
@@ -9199,7 +9199,7 @@
       <c r="AI67" t="inlineStr"/>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q71" t="n">
@@ -9727,7 +9727,7 @@
       <c r="AI71" t="inlineStr"/>
       <c r="AJ71" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q74" t="n">
@@ -10123,7 +10123,7 @@
       <c r="AI74" t="inlineStr"/>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q75" t="n">
@@ -10249,7 +10249,7 @@
       <c r="AI75" t="inlineStr"/>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q79" t="n">
@@ -10777,7 +10777,7 @@
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q80" t="n">
@@ -10905,7 +10905,7 @@
       <c r="AI80" t="inlineStr"/>
       <c r="AJ80" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -11239,7 +11239,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q83" t="n">
@@ -11301,7 +11301,7 @@
       <c r="AI83" t="inlineStr"/>
       <c r="AJ83" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -11355,7 +11355,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q84" t="n">
@@ -11417,7 +11417,7 @@
       <c r="AI84" t="inlineStr"/>
       <c r="AJ84" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -12007,7 +12007,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q89" t="n">
@@ -12069,7 +12069,7 @@
       <c r="AI89" t="inlineStr"/>
       <c r="AJ89" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -12267,7 +12267,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q91" t="n">
@@ -12329,7 +12329,7 @@
       <c r="AI91" t="inlineStr"/>
       <c r="AJ91" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q92" t="n">
@@ -12457,7 +12457,7 @@
       <c r="AI92" t="inlineStr"/>
       <c r="AJ92" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q96" t="n">
@@ -12983,7 +12983,7 @@
       <c r="AI96" t="inlineStr"/>
       <c r="AJ96" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q98" t="n">
@@ -13239,7 +13239,7 @@
       <c r="AI98" t="inlineStr"/>
       <c r="AJ98" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q99" t="n">
@@ -13369,7 +13369,7 @@
       <c r="AI99" t="inlineStr"/>
       <c r="AJ99" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q100" t="n">
@@ -13493,7 +13493,7 @@
       <c r="AI100" t="inlineStr"/>
       <c r="AJ100" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q101" t="n">
@@ -13621,7 +13621,7 @@
       <c r="AI101" t="inlineStr"/>
       <c r="AJ101" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q102" t="n">
@@ -13745,7 +13745,7 @@
       <c r="AI102" t="inlineStr"/>
       <c r="AJ102" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q103" t="n">
@@ -13873,7 +13873,7 @@
       <c r="AI103" t="inlineStr"/>
       <c r="AJ103" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q105" t="n">
@@ -14133,7 +14133,7 @@
       <c r="AI105" t="inlineStr"/>
       <c r="AJ105" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -14303,7 +14303,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q107" t="n">
@@ -14365,7 +14365,7 @@
       <c r="AI107" t="inlineStr"/>
       <c r="AJ107" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q110" t="n">
@@ -14761,7 +14761,7 @@
       <c r="AI110" t="inlineStr"/>
       <c r="AJ110" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q111" t="n">
@@ -14885,7 +14885,7 @@
       <c r="AI111" t="inlineStr"/>
       <c r="AJ111" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -14951,7 +14951,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q112" t="n">
@@ -15013,7 +15013,7 @@
       <c r="AI112" t="inlineStr"/>
       <c r="AJ112" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q113" t="n">
@@ -15141,7 +15141,7 @@
       <c r="AI113" t="inlineStr"/>
       <c r="AJ113" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -15339,7 +15339,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q115" t="n">
@@ -15401,7 +15401,7 @@
       <c r="AI115" t="inlineStr"/>
       <c r="AJ115" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -15467,7 +15467,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q116" t="n">
@@ -15529,7 +15529,7 @@
       <c r="AI116" t="inlineStr"/>
       <c r="AJ116" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q117" t="n">
@@ -15661,7 +15661,7 @@
       <c r="AI117" t="inlineStr"/>
       <c r="AJ117" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -15723,7 +15723,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q118" t="n">
@@ -15785,7 +15785,7 @@
       <c r="AI118" t="inlineStr"/>
       <c r="AJ118" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -15851,7 +15851,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q119" t="n">
@@ -15913,7 +15913,7 @@
       <c r="AI119" t="inlineStr"/>
       <c r="AJ119" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -15977,7 +15977,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q120" t="n">
@@ -16039,7 +16039,7 @@
       <c r="AI120" t="inlineStr"/>
       <c r="AJ120" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -16335,7 +16335,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q123" t="n">
@@ -16397,7 +16397,7 @@
       <c r="AI123" t="inlineStr"/>
       <c r="AJ123" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -16459,7 +16459,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q124" t="n">
@@ -16521,7 +16521,7 @@
       <c r="AI124" t="inlineStr"/>
       <c r="AJ124" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -16583,7 +16583,7 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q125" t="n">
@@ -16645,7 +16645,7 @@
       <c r="AI125" t="inlineStr"/>
       <c r="AJ125" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q126" t="n">
@@ -16771,7 +16771,7 @@
       <c r="AI126" t="inlineStr"/>
       <c r="AJ126" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q127" t="n">
@@ -16895,7 +16895,7 @@
       <c r="AI127" t="inlineStr"/>
       <c r="AJ127" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -16961,7 +16961,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room - Baby not on NG Feeds no linked sample</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q128" t="n">
@@ -17023,7 +17023,7 @@
       <c r="AI128" t="inlineStr"/>
       <c r="AJ128" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>
@@ -17085,7 +17085,7 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>Residual from Milk Prep Room</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
       <c r="Q129" t="n">
@@ -17147,7 +17147,7 @@
       <c r="AI129" t="inlineStr"/>
       <c r="AJ129" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>Prepped in Milk Room</t>
         </is>
       </c>
     </row>

--- a/Unlinked_Merged.xlsx
+++ b/Unlinked_Merged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ129"/>
+  <dimension ref="A1:AK129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,6 +614,11 @@
           <t>Sample Source</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>secretorstatus_mom</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -872,6 +882,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1004,6 +1019,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1136,6 +1156,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1264,6 +1289,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1396,6 +1426,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1534,6 +1569,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1670,6 +1710,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1802,6 +1847,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1934,6 +1984,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2070,6 +2125,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2194,6 +2254,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2326,6 +2391,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2462,6 +2532,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2590,6 +2665,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2714,6 +2794,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2838,6 +2923,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2970,6 +3060,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3106,6 +3201,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3234,6 +3334,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3366,6 +3471,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3498,6 +3608,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3632,6 +3747,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3764,6 +3884,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3890,6 +4015,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4014,6 +4144,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4140,6 +4275,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4268,6 +4408,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4400,6 +4545,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4534,6 +4684,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4660,6 +4815,11 @@
       <c r="AJ32" t="inlineStr">
         <is>
           <t>Prepped in Milk Room</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
         </is>
       </c>
     </row>
@@ -4778,6 +4938,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4902,6 +5067,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5034,6 +5204,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5166,6 +5341,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5298,6 +5478,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5434,6 +5619,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5558,6 +5748,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5690,6 +5885,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5822,6 +6022,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5954,6 +6159,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6082,6 +6292,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6212,6 +6427,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6340,6 +6560,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6472,6 +6697,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6608,6 +6838,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6740,6 +6975,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6864,6 +7104,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6998,6 +7243,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7134,6 +7384,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7262,6 +7517,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7390,6 +7650,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7524,6 +7789,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7658,6 +7928,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7790,6 +8065,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7922,6 +8202,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8052,6 +8337,11 @@
       <c r="AJ58" t="inlineStr">
         <is>
           <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>No MBM</t>
         </is>
       </c>
     </row>
@@ -8170,6 +8460,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8294,6 +8589,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8426,6 +8726,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8558,6 +8863,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8682,6 +8992,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8814,6 +9129,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8946,6 +9266,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9078,6 +9403,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9202,6 +9532,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9334,6 +9669,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9466,6 +9806,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9598,6 +9943,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK70" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9730,6 +10080,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9862,6 +10217,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9994,6 +10354,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK73" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10126,6 +10491,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10252,6 +10622,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10384,6 +10759,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10516,6 +10896,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10648,6 +11033,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10780,6 +11170,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10908,6 +11303,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11040,6 +11440,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11172,6 +11577,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11302,6 +11712,11 @@
       <c r="AJ83" t="inlineStr">
         <is>
           <t>Prepped in Milk Room</t>
+        </is>
+      </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t>Secretor</t>
         </is>
       </c>
     </row>
@@ -11420,6 +11835,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11552,6 +11972,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11684,6 +12109,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11816,6 +12246,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11948,6 +12383,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12072,6 +12512,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12204,6 +12649,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12332,6 +12782,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12460,6 +12915,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12594,6 +13054,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12730,6 +13195,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12862,6 +13332,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12986,6 +13461,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13118,6 +13598,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13242,6 +13727,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13372,6 +13862,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK99" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13496,6 +13991,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK100" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13624,6 +14124,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK101" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13748,6 +14253,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13876,6 +14386,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK103" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14008,6 +14523,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK104" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14134,6 +14654,11 @@
       <c r="AJ105" t="inlineStr">
         <is>
           <t>Prepped in Milk Room</t>
+        </is>
+      </c>
+      <c r="AK105" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
         </is>
       </c>
     </row>
@@ -14240,6 +14765,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK106" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14368,6 +14898,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK107" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14500,6 +15035,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK108" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14632,6 +15172,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK109" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14764,6 +15309,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK110" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14888,6 +15438,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK111" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15016,6 +15571,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK112" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -15144,6 +15704,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK113" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15276,6 +15841,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK114" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15404,6 +15974,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK115" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15532,6 +16107,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK116" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15664,6 +16244,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK117" t="inlineStr">
+        <is>
+          <t>Non-Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15788,6 +16373,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK118" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15916,6 +16506,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK119" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16042,6 +16637,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK120" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -16172,6 +16772,11 @@
       <c r="AJ121" t="inlineStr">
         <is>
           <t>Scavenged</t>
+        </is>
+      </c>
+      <c r="AK121" t="inlineStr">
+        <is>
+          <t>No MBM</t>
         </is>
       </c>
     </row>
@@ -16276,6 +16881,11 @@
           <t>Scavenged</t>
         </is>
       </c>
+      <c r="AK122" t="inlineStr">
+        <is>
+          <t>No MBM</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16400,6 +17010,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK123" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16524,6 +17139,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK124" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16648,6 +17268,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK125" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16774,6 +17399,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK126" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16898,6 +17528,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK127" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -17026,6 +17661,11 @@
           <t>Prepped in Milk Room</t>
         </is>
       </c>
+      <c r="AK128" t="inlineStr">
+        <is>
+          <t>Secretor</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -17148,6 +17788,11 @@
       <c r="AJ129" t="inlineStr">
         <is>
           <t>Prepped in Milk Room</t>
+        </is>
+      </c>
+      <c r="AK129" t="inlineStr">
+        <is>
+          <t>Secretor</t>
         </is>
       </c>
     </row>
